--- a/Spreadsheets/New_Customers.xlsx
+++ b/Spreadsheets/New_Customers.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 2025" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 2025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr 2025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May 2025" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun 2025" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jul 2025" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1713,4 +1717,2522 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dollie Desai</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9825082629</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>U2,902 Happy Excellencia, Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>45772</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pratik agrwal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9825291307</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vesu B201 rajhans cromona</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Leher Thakur</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9624004792</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C-201, Aakash Evergreen, Vesu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>45768</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aakash Damani</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7434032409</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hotel Shreeji Vatika, Piplod, Dumas Road</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>45771</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Maheshbhai</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8320999203</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>45752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>yash</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8469894517</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>45752</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mamta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8000906977</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Vesu JOLLY RECIDANCY</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45755</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Suman Kothari</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9924599987</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>45772</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Daljit</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9898216896</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>the grand plaza shop no 16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>k.p</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9012406659</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gourav bagaria</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6291673385</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A/B3 green victory</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yashvi SINGHAN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9408120230</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>STAR GALAXY G-325</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>neha churiwal raj tilak apartment Q206</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9924624544</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>45783</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nikita</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6358107635</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>happy glorius G-6-301</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ankita damani</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8866040899</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Happy Elanza, C1201</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sapna kothari</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9265764632</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B401 sapphire court</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kirti gupta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8347583195</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vesu someshwar m 80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>45779</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>diana</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9712902353</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Vesu JOLLY I1203</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kunj bihari</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9651191359</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>shiva suwalka</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8875481372</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vesu aagam hotel nova</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pinki</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8511661008</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45780</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>shiva suwalka</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7081797878</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vesu aagam hotel nova 306</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>anupama</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9016242079</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jolly H601</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>prieet</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9712755116</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>rahul baid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9664951965</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gavtabhai narnave</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7875055627</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hotel sunrise AGAM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>babita</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8780331212</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>rajhans sinfoniya B805</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>chirag shah</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9227907979</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>riya</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9460291537</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>kassel braun appartment-8C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saloni</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9687422277</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>subh anclev A1004</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mitesh bhai</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9537890657</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dumas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>janita saluja</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9825107160</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>the majestic F 1303</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zota</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8980878542</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mitushree soni</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9327089115</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>althan A1202 marvella residancy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>renu</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9694966590</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>happy glorios G6301</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sakuntla</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9427344342</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hemtanpark b901</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sneha juwani</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9638222737</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fiona A401</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>vandna patel</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9106938198</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dream house102</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>salman salon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9727182884</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vesu cannon street 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8306540657</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>d 301 sangini vedanta</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>jinali</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9555965750</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>karishma murarka</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8160833677</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>althan D 916 sentosa heights</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kavita mehta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9537547555</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The Atmoshphere, Vesu B201</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Samir Bhai</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9971599922</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Vesu hemton park B301</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>harsh</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7047366468</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vashar preet</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9898169655</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vesu B2 501 celebrity greens</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>neha shah</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9724198940</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vesu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sourav</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9974173433</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jolly A1304</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>shradha jain</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8511031011</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dev raj residancy D801</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>amar singh</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9574802367</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dr abhilasha</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7698173840</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>amar singh</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9512504076</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>deva park infinity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7665340302</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ALTHAN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mihir</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8108349933</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>celebrity greens D2 301</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>himansu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9818580296</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>swapna bhumi D603</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>jayshree vayeda</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8200812058</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vesu shubhan B1004</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aasha agrwal</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9327922291</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>capital green</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ishani</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9723423643</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hampton park B901</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>shuruchi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9687618848</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>401 maarquis hitsh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aagam</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9974842906</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>celibrity green B2 501</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>foram</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7359724111</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sureshbhai</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7080296220</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>falguni</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9586005322</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fiona B1102</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mukesh</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9820019283</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tanish jain</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7984925177</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>green vally G415</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Harsha</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9977937276</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>priyanshu</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9016717039</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>maarqiuis hights 401</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vanita</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9099921981</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>poja</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8780113488</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nikunj</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9978062856</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>suman</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9327955366</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dream house 203</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rajesh shah</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9825118388</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>avi raj</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9664784636</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nirali shah</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9833869913</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>piplodd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>